--- a/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
+++ b/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="38">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -107,26 +107,6 @@
     <t>옷장 불러오기</t>
   </si>
   <si>
-    <t>○'데일리룩' 등록 데이터
-- ID: 데일리룩의 고유한 일련번호(Text)
-- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
-- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
-- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
-- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
-- 생성자: 로그인한 유저ID(Text)
-- 용도: 유저의 데일리룩 정보 기록
-- URL: 데일리룩이 위치할 페이지(URL)
-- 생성일자(Text)
-○'데일리룩' 등록 -&gt; 사진, 옷 정보, 정보를 쓰는 유저의 글
-- 새로 등록할 데일리룩의 제목을 정한다.(필수)
-- 새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
-- 새로 등록할 데일리룩의 사진을 선택한다.(필수)
-- 인체 그리드에 맞게 옷 정보를 입력한다.(옷 정보: 구매처, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수)
-- 옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
-- '작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>○'데일리룩' 수정 등록 데이터
 - ID: 데일리룩의 고유한 일련번호(Text)
 - 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
@@ -156,6 +136,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>글 조회(주, 월, 연)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○'데일리룩' 등록 데이터
+- ID: 데일리룩의 고유한 일련번호(Text)
+- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
+- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
+- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
+- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
+- 생성자: 로그인한 유저ID(Text)
+- 용도: 유저의 데일리룩 정보 기록
+- URL: 데일리룩이 위치할 페이지(URL)
+- 생성일자(Text)
+○'데일리룩' 등록 -&gt; 사진, 옷 정보, 정보를 쓰는 유저의 글
+- 새로 등록할 데일리룩의 제목을 정한다.(필수)
+- 새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
+- 새로 등록할 데일리룩의 사진을 선택한다.(필수)
+- 인체 그리드에 맞게 옷 정보를 입력한다.(옷 정보: 구매처, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수)
+- 옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
+- '작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>○옷장 불러오기 데이터
 - 옷장의 상품명(Text)
 - 옷장 상품의 사진(Img(uploadAPI, formData, config))
@@ -171,19 +175,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 조회(주, 월, 연)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">○ 주별 조회 시 불러오는 데이터
 - 데일리룩ID: 데일리룩의 고유한 일련번호(Text)
-- 데일리룩 제목: 데일리룩의 고유 명칭(Text)
 - 노출 URL: 주별 데일리룩 조회 URL
+○ 월별 조회 시 불러오는 데이터
+- 월별 대표 사진: 유저가 지정한 사진(Img(uploadAPI, formData, config))
+- 노출 URL: 월별 데일리룩 조회 URL
+○ 연별 조회 시 불러오는 데이터
+- 연별 대표 사진: 유저가 지정한 사진(Img(uploadAPI, formData, config))
+- 노출 URL: 연별 데일리룩 조회 URL
 ○ 유저가 작성한 '데일리룩'을 주 단위로 조회
 - 패테 홈에서 나의 데일리룩의 자세히보기를 클릭하면 주별 데일리룩 조회 페이지로 이동
 - 해당 월의 데일리룩이 달력의 그리드에 맞춰 주별로 정렬되어 노출됨.(작성하지 않은 날은 X표시함)
 ○ 유저가 작성한 '데일리룩'을 월 단위로 조회
-- 
+- 월별 데일리룩이 달력의 그리드에 맞춰 정렬되어 노출됨.(작성하지 않은 달은 X표시함)
+○ 유저가 작성한 '데일리룩'을 연 단위로 조회
+- 연별 데일리룩이 달력의 그리드에 맞춰 정렬되어 노출됨.(작성하지 않은 연은 생성되지 않음)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 조회/상세조회</t>
+  </si>
+  <si>
+    <t>유저의 '데일리룩' 정보를 조회한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ 데일리룩 조회 데이터
+- ID: 데일리룩의 고유한 일련번호(Text)
+- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
+- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
+- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
+- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
+- 생성자: 작성한 유저ID(Text)
+- 용도: 유저의 데일리룩 정보 기록
+- URL: 데일리룩이 위치할 페이지(URL)
+- 생성일자(Text), 수정일자(Text)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -279,8 +306,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +327,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -402,6 +442,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -417,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -442,24 +558,61 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -18368,6 +18521,5382 @@
         <a:xfrm>
           <a:off x="7250430" y="44474130"/>
           <a:ext cx="57150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="887" name="Shape 43"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="888" name="Shape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="889" name="Shape 45"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="890" name="Shape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="891" name="Shape 47"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="892" name="Shape 48"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="893" name="Shape 49"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="894" name="Shape 50"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="895" name="Shape 299"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="896" name="Shape 300"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="897" name="Shape 301"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="898" name="Shape 302"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="899" name="Shape 303"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="900" name="Shape 304"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="901" name="Shape 305"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="902" name="Shape 306"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="903" name="Shape 307"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="904" name="Shape 308"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="905" name="Shape 309"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="906" name="Shape 310"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="907" name="Shape 311"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="908" name="Shape 312"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="909" name="Shape 313"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="910" name="Shape 314"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="911" name="Shape 315"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="912" name="Shape 316"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="913" name="Shape 317"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="914" name="Shape 318"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="915" name="Shape 319"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="916" name="Shape 320"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="917" name="Shape 321"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="918" name="Shape 322"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="919" name="Shape 323"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="920" name="Shape 324"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="921" name="Shape 325"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="922" name="Shape 326"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="923" name="Shape 327"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="924" name="Shape 328"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="925" name="Shape 329"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="926" name="Shape 330"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="927" name="Shape 331"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="928" name="Shape 332"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="929" name="Shape 333"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="930" name="Shape 334"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5341408" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="931" name="Shape 335"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="932" name="Shape 336"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="933" name="Shape 337"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="934" name="Shape 338"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6569075" y="44251033"/>
+          <a:ext cx="47625" cy="366184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="935" name="Shape 619"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="936" name="Shape 620"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="937" name="Shape 621"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="938" name="Shape 622"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="939" name="Shape 623"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="940" name="Shape 624"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="941" name="Shape 625"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="942" name="Shape 626"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="943" name="Shape 739"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="944" name="Shape 740"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="945" name="Shape 741"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="946" name="Shape 742"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="947" name="Shape 743"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="948" name="Shape 744"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="949" name="Shape 745"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="950" name="Shape 746"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="951" name="Shape 747"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="952" name="Shape 748"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="953" name="Shape 749"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="954" name="Shape 750"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="955" name="Shape 751"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="956" name="Shape 752"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="957" name="Shape 753"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="958" name="Shape 754"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="959" name="Shape 755"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="960" name="Shape 756"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="961" name="Shape 757"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="962" name="Shape 758"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="963" name="Shape 759"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="964" name="Shape 760"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="965" name="Shape 761"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="966" name="Shape 762"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="967" name="Shape 763"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="968" name="Shape 764"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="969" name="Shape 765"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="970" name="Shape 766"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="971" name="Shape 767"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="972" name="Shape 768"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="973" name="Shape 769"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="974" name="Shape 770"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="975" name="Shape 771"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="976" name="Shape 772"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="977" name="Shape 773"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="978" name="Shape 774"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5331883" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="979" name="Shape 775"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="980" name="Shape 776"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="981" name="Shape 777"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0" cap="flat" cmpd="sng">
+          <a:noFill/>
+          <a:prstDash/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="91440" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Gulimche"/>
+              <a:ea typeface="Gulimche"/>
+            </a:rPr>
+            <a:t>업무기능분해도</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="982" name="Shape 778"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6559550" y="44241508"/>
+          <a:ext cx="57150" cy="375709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18601,10 +24130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:F71"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A85" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="14.4"/>
@@ -18672,14 +24201,14 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -18761,12 +24290,12 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -18791,17 +24320,17 @@
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -18826,15 +24355,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -18859,15 +24388,15 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -18892,13 +24421,13 @@
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -18923,13 +24452,13 @@
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>29</v>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -18954,11 +24483,11 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -18983,11 +24512,11 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -19012,13 +24541,13 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -19121,14 +24650,14 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -19210,12 +24739,12 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -19240,17 +24769,17 @@
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -19275,15 +24804,15 @@
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -19308,15 +24837,15 @@
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -19341,13 +24870,13 @@
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -19372,13 +24901,13 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>30</v>
+      <c r="B26" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -19403,11 +24932,11 @@
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -19432,11 +24961,11 @@
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -19461,13 +24990,13 @@
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -19570,14 +25099,14 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -19659,12 +25188,12 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -19689,17 +25218,17 @@
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -19724,15 +25253,15 @@
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -19757,15 +25286,15 @@
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -19790,13 +25319,13 @@
       <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -19821,13 +25350,13 @@
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>31</v>
+      <c r="B41" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -19852,11 +25381,11 @@
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -19881,11 +25410,11 @@
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -19910,13 +25439,13 @@
       <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -20019,14 +25548,14 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -20108,12 +25637,12 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -20138,17 +25667,17 @@
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -20173,15 +25702,15 @@
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -20206,15 +25735,15 @@
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -20239,13 +25768,13 @@
       <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -20270,13 +25799,13 @@
       <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>32</v>
+      <c r="B56" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -20301,11 +25830,11 @@
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -20330,11 +25859,11 @@
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -20359,13 +25888,13 @@
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -20468,14 +25997,14 @@
       <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -20529,7 +26058,7 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
     </row>
-    <row r="65" spans="1:26" ht="2.25" customHeight="1">
+    <row r="65" spans="1:25" ht="2.25" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -20556,13 +26085,13 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
+    <row r="66" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -20583,21 +26112,21 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="27.75" customHeight="1">
+    <row r="67" spans="1:25" ht="27.75" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -20618,19 +26147,19 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="21.75" customHeight="1">
+    <row r="68" spans="1:25" ht="21.75" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>33</v>
+      <c r="E68" s="11" t="s">
+        <v>31</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -20651,21 +26180,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="22.5" customHeight="1">
+    <row r="69" spans="1:25" ht="22.5" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -20686,17 +26215,17 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="22.5" customHeight="1">
+    <row r="70" spans="1:25" ht="22.5" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -20717,17 +26246,17 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="309" customHeight="1">
+    <row r="71" spans="1:25" ht="339" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -20748,15 +26277,15 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="109.5" customHeight="1">
+    <row r="72" spans="1:25" ht="109.5" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -20777,15 +26306,15 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="108" customHeight="1">
+    <row r="73" spans="1:25" ht="108" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -20806,17 +26335,17 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="149.25" customHeight="1">
+    <row r="74" spans="1:25" ht="149.25" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="9"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -20837,7 +26366,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="10.5" customHeight="1">
+    <row r="75" spans="1:25" ht="10.5" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -20864,7 +26393,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="10.5" customHeight="1">
+    <row r="76" spans="1:25" ht="10.5" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -20890,9 +26419,8 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="10.5" customHeight="1">
+    <row r="77" spans="1:25" ht="10.5" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -20918,127 +26446,138 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
+    <row r="78" spans="1:25" ht="27.75" customHeight="1">
+      <c r="A78" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
+    <row r="79" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
+    <row r="80" spans="1:25" ht="2.25" customHeight="1" thickBot="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
+    <row r="81" spans="1:25" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+    <row r="82" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A82" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="26"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -21058,15 +26597,20 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+    <row r="83" spans="1:25" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A83" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="26"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -21086,15 +26630,20 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+    <row r="84" spans="1:25" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A84" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="26"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -21114,15 +26663,18 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+    <row r="85" spans="1:25" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A85" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -21142,15 +26694,18 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+    <row r="86" spans="1:25" ht="339" customHeight="1" thickBot="1">
+      <c r="A86" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -21170,15 +26725,16 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+    <row r="87" spans="1:25" ht="109.5" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -21198,15 +26754,16 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+    <row r="88" spans="1:25" ht="108" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -21226,15 +26783,18 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+    <row r="89" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -21254,15 +26814,14 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+    <row r="90" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="19"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -21282,15 +26841,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+    <row r="91" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="19"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -21310,15 +26868,14 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+    <row r="92" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -21338,15 +26895,14 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+    <row r="93" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="19"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -21366,15 +26922,14 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+    <row r="94" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -21394,15 +26949,14 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+    <row r="95" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -21422,15 +26976,14 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+    <row r="96" spans="1:25" ht="149.25" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="19"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -21450,15 +27003,14 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+    <row r="97" spans="1:26" ht="149.25" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="19"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -21478,15 +27030,14 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+    <row r="98" spans="1:26" ht="149.25" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -21506,7 +27057,6 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="10.5" customHeight="1">
       <c r="A99" s="2"/>
@@ -21534,7 +27084,6 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="10.5" customHeight="1">
       <c r="A100" s="2"/>
@@ -21676,8 +27225,756 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
+    <row r="105" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" ht="10.5" customHeight="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="84">
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="E74:F74"/>
@@ -21686,76 +27983,18 @@
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
     <mergeCell ref="B72:F72"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LOOO 프로젝트 &amp;R요구사항 명세서</oddHeader>
     <oddFooter>&amp;L[고객사]&amp;C&amp;P/&amp;R00B0F0LSDM</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="58" max="5" man="1"/>
+    <brk id="73" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
+++ b/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
@@ -107,71 +107,7 @@
     <t>옷장 불러오기</t>
   </si>
   <si>
-    <t>○'데일리룩' 수정 등록 데이터
-- ID: 데일리룩의 고유한 일련번호(Text)
-- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
-- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
-- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
-- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
-- 생성자: 로그인한 유저ID(Text)
-- 용도: 유저의 데일리룩 정보 수정
-- URL: 데일리룩이 위치할 페이지(URL)
-- 수정일자(Text)
-○'데일리룩' 수정 -&gt; 기존에 등록해둔 '데일리룩'의 사진, 옷 정보, 글 내용 수정
-- 기존 '데일리룩' 글의 제목, 스타일, 사진, 인체 그리드 옷 정보. 감상을 선택하여 수정한다.
-- 기존 데일리룩의 글 제목을 수정한다.(선택-비운 채 수정 완료 불가)
-- 기존 데일리룩의 스타일을 수정한다.(선택-비운 채 수정 완료 불가)
-- 기존 데일리룩의 인체 그리드 옷 정보를 수정한다.(선택-비운 채 수정 완료 불가)
-- 기존 데일리룩의 글 내용을 수정한다.(선택-비운 채 수정 완료 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-○ '데일리룩' 삭제 -&gt; 기존에 등록해둔 '데일리룩'을 삭제
--기존에 작성해둔 '데일리룩'을 조회한다.
--기존에 작성해둔 '데일리룩' 중 삭제하고 싶은 글을 클릭하여 들어간다.
--들어간 '데일리룩'의 가장 오른쪽, 위에 삭제 버튼을 클릭한다.
--'이 데일리룩을 삭제하시겠습니까?' 팝업창이 나오고, '예, 삭제하겠습니다.' 선택 시, 해당 데일리룩이 삭제된다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 조회(주, 월, 연)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○'데일리룩' 등록 데이터
-- ID: 데일리룩의 고유한 일련번호(Text)
-- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
-- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
-- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
-- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
-- 생성자: 로그인한 유저ID(Text)
-- 용도: 유저의 데일리룩 정보 기록
-- URL: 데일리룩이 위치할 페이지(URL)
-- 생성일자(Text)
-○'데일리룩' 등록 -&gt; 사진, 옷 정보, 정보를 쓰는 유저의 글
-- 새로 등록할 데일리룩의 제목을 정한다.(필수)
-- 새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
-- 새로 등록할 데일리룩의 사진을 선택한다.(필수)
-- 인체 그리드에 맞게 옷 정보를 입력한다.(옷 정보: 구매처, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수)
-- 옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
-- '작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○옷장 불러오기 데이터
-- 옷장의 상품명(Text)
-- 옷장 상품의 사진(Img(uploadAPI, formData, config))
-○'데일리룩' 등록 시, 옷장에 등록된 정보를 불러와 작성
--새로 등록할 데일리룩의 제목을 정한다.(필수)
--새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
--새로 등록할 데일리룩의 사진을 선택한다.(필수)
--인체 그리드에 맞게 옷 정보를 입력한다.
-+(작성하고자 하는 정보가 '옷장'에 있다면, '옷장에서 가져오기'버튼을 선택해 가져올 옷장 중 하나를 선택 하고, 선택한 옷장의 정보를 불러와 '데일리룩'에 쓰고자 하는 옷을 선택해(복수 선택 가능) 옷 정보를 작성중인 '데일리 룩'으로 가져온다.
-옷 정보: 브랜드, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수))
--옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
--'작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,6 +137,80 @@
     <t>유저의 '데일리룩' 정보를 조회한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">
+○ '데일리룩' 삭제 -&gt; 기존에 등록해둔 '데일리룩'을 삭제
+-기존에 작성해둔 '데일리룩'을 조회한다.
+-기존에 작성해둔 '데일리룩' 중 삭제하고 싶은 글을 클릭하여 들어간다.
+-들어간 '데일리룩'의 가장 오른쪽, 위에 삭제 버튼을 클릭한다.
+-'이 데일리룩을 삭제하시겠습니까?' 팝업창이 나오고, '예, 삭제하겠습니다.' 선택 시, 해당 데일리룩이 삭제된다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○옷장 불러오기 데이터
+- 옷장의 상품명(Text)
+- 옷장 상품의 사진(Img(uploadAPI, formData, config))
+○'데일리룩' 등록 시, 옷장에 등록된 정보를 불러와 작성
+-새로 등록할 데일리룩의 제목을 정한다.(필수)
+-새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
+-새로 등록할 데일리룩의 사진을 선택한다.(필수)
+-인체 그리드에 맞게 옷 정보를 입력한다.
++(작성하고자 하는 정보가 '옷장'에 있다면, '옷장에서 가져오기'버튼을 선택해 가져올 옷장 중 하나를 선택 하고, 선택한 옷장의 정보를 불러와 '데일리룩'에 쓰고자 하는 옷을 선택해(복수 선택 가능) 옷 정보를 작성중인 '데일리 룩'으로 가져온다.
+옷 정보: 브랜드, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수))
+-옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
+-'작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○'데일리룩' 등록 데이터
+- ID: 데일리룩의 고유한 일련번호(Text)
+- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
+- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
+- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
+- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
+- 생성자: 로그인한 유저ID(Text)
+- 용도: 유저의 데일리룩 정보 기록
+- URL: 데일리룩이 위치할 페이지(URL)
+- 생성일자(Text)
+○옷장 불러오기 데이터
+- 옷장의 상품명(Text)
+- 옷장 상품의 사진(Img(uploadAPI, formData, config))
+- 옷장 상품의 이름(Text)
+○'데일리룩' 등록 -&gt; 사진, 옷 정보, 정보를 쓰는 유저의 글
+- 새로 등록할 데일리룩의 제목을 정한다.(필수)
+- 새로 등록할 데일리룩의 스타일을 지정한다.(러블리, 힙, 아메카지, 프리 등등)(필수)
+- 새로 등록할 데일리룩의 사진을 선택한다.(필수)
+- 인체 그리드에 맞게 옷 정보를 입력한다.(옷 정보: 구매처, 옷 이름(+선택: 옷의 색상명)(1개 이상 작성 필수)
+- '옷장 리스트'에서 원하는 옷장에서 원하는 아이템을 클릭하여 '등록할 아이템'에 정보를 등록한다.
+- 옷 핏에 대한 설명이나, 옷을 입은 날의 감상을 간단히 작성한다.(필수X)
+- '작성 완료' 버튼 누르면 데일리룩 등록 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○'데일리룩' 수정 등록 데이터
+- ID: 데일리룩의 고유한 일련번호(Text)
+- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
+- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
+- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
+- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
+- 생성자: 로그인한 유저ID(Text)
+- 용도: 유저의 데일리룩 정보 수정
+- URL: 데일리룩이 위치할 페이지(URL)
+- 수정일자(Text)
+○옷장 불러오기 데이터
+- 옷장의 상품명(Text)
+- 옷장 상품의 사진(Img(uploadAPI, formData, config))
+- 옷장 상품의 이름(Text)
+○'데일리룩' 수정 -&gt; 기존에 등록해둔 '데일리룩'의 사진, 옷 정보, 글 내용 수정
+- 기존 '데일리룩' 글의 제목, 스타일, 사진, 인체 그리드 옷 정보. 감상을 선택하여 수정한다.
+- 기존 데일리룩의 글 제목을 수정한다.(선택-비운 채 수정 완료 불가)
+- 기존 데일리룩의 스타일을 수정한다.(선택-비운 채 수정 완료 불가)
+- 기존 데일리룩의 인체 그리드 옷 정보를 수정한다.(선택-비운 채 수정 완료 불가)
+- '옷장 리스트'에서 원하는 옷장에서 원하는 아이템을 클릭하여 '등록할 아이템'에 정보를 수정하여 등록한다.
+- 기존 데일리룩의 글 내용을 수정한다.(선택-비운 채 수정 완료 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">○ 데일리룩 조회 데이터
 - ID: 데일리룩의 고유한 일련번호(Text)
 - 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
@@ -208,6 +218,7 @@
 - 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
 - 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
 - 생성자: 작성한 유저ID(Text)
+- 점수: 댓글에서 각각의 유저가 낸 점수의 평균(Text)
 - 용도: 유저의 데일리룩 정보 기록
 - URL: 데일리룩이 위치할 페이지(URL)
 - 생성일자(Text), 수정일자(Text)
@@ -558,25 +569,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,13 +588,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,6 +610,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -24132,8 +24143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A85" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:F86"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="14.4"/>
@@ -24201,14 +24212,14 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -24290,12 +24301,12 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -24320,17 +24331,17 @@
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -24355,15 +24366,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -24388,15 +24399,15 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -24421,13 +24432,13 @@
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -24448,17 +24459,17 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="309" customHeight="1">
+    <row r="11" spans="1:25" ht="405.6" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
+      <c r="B11" s="24" t="s">
+        <v>35</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -24483,11 +24494,11 @@
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -24512,11 +24523,11 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -24541,13 +24552,13 @@
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -24650,14 +24661,14 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -24739,12 +24750,12 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -24769,17 +24780,17 @@
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -24804,15 +24815,15 @@
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -24837,15 +24848,15 @@
       <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -24870,13 +24881,13 @@
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -24897,17 +24908,17 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="309" customHeight="1">
+    <row r="26" spans="1:25" ht="384" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>29</v>
+      <c r="B26" s="24" t="s">
+        <v>36</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -24932,11 +24943,11 @@
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -24961,11 +24972,11 @@
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -24990,13 +25001,13 @@
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -25099,14 +25110,14 @@
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -25188,12 +25199,12 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -25218,17 +25229,17 @@
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -25253,15 +25264,15 @@
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -25286,15 +25297,15 @@
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -25319,13 +25330,13 @@
       <c r="A40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -25350,13 +25361,13 @@
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>30</v>
+      <c r="B41" s="24" t="s">
+        <v>33</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -25381,11 +25392,11 @@
       <c r="A42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -25410,11 +25421,11 @@
       <c r="A43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -25439,13 +25450,13 @@
       <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -25548,14 +25559,14 @@
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -25637,12 +25648,12 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -25667,17 +25678,17 @@
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -25702,15 +25713,15 @@
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -25735,15 +25746,15 @@
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -25768,13 +25779,13 @@
       <c r="A55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -25799,13 +25810,13 @@
       <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>33</v>
+      <c r="B56" s="24" t="s">
+        <v>34</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -25830,11 +25841,11 @@
       <c r="A57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -25859,11 +25870,11 @@
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -25888,13 +25899,13 @@
       <c r="A59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -25997,14 +26008,14 @@
       <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -26086,12 +26097,12 @@
       <c r="Y65" s="4"/>
     </row>
     <row r="66" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -26116,17 +26127,17 @@
       <c r="A67" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -26151,15 +26162,15 @@
       <c r="A68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>31</v>
+      <c r="E68" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -26184,17 +26195,17 @@
       <c r="A69" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -26219,13 +26230,13 @@
       <c r="A70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -26250,13 +26261,13 @@
       <c r="A71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>34</v>
+      <c r="B71" s="24" t="s">
+        <v>30</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -26281,11 +26292,11 @@
       <c r="A72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -26310,11 +26321,11 @@
       <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -26339,13 +26350,13 @@
       <c r="A74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="10"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="17"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -26448,14 +26459,14 @@
       <c r="Y77" s="3"/>
     </row>
     <row r="78" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -26537,12 +26548,12 @@
       <c r="Y80" s="4"/>
     </row>
     <row r="81" spans="1:25" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -26564,20 +26575,20 @@
       <c r="Y81" s="4"/>
     </row>
     <row r="82" spans="1:25" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="21" t="s">
+      <c r="C82" s="19"/>
+      <c r="D82" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="26"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -26599,18 +26610,18 @@
       <c r="Y82" s="3"/>
     </row>
     <row r="83" spans="1:25" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="23" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>35</v>
+      <c r="E83" s="18" t="s">
+        <v>31</v>
       </c>
-      <c r="F83" s="26"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -26632,18 +26643,18 @@
       <c r="Y83" s="3"/>
     </row>
     <row r="84" spans="1:25" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="23" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="25" t="s">
+      <c r="E84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="26"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -26665,16 +26676,16 @@
       <c r="Y84" s="3"/>
     </row>
     <row r="85" spans="1:25" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>36</v>
+      <c r="B85" s="18" t="s">
+        <v>32</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="26"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -26696,16 +26707,16 @@
       <c r="Y85" s="3"/>
     </row>
     <row r="86" spans="1:25" ht="339" customHeight="1" thickBot="1">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -26730,11 +26741,11 @@
       <c r="A87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="10"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -26759,11 +26770,11 @@
       <c r="A88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -26788,13 +26799,13 @@
       <c r="A89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="10"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -26816,12 +26827,12 @@
       <c r="Y89" s="3"/>
     </row>
     <row r="90" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -26843,12 +26854,12 @@
       <c r="Y90" s="3"/>
     </row>
     <row r="91" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -26870,12 +26881,12 @@
       <c r="Y91" s="3"/>
     </row>
     <row r="92" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -26897,12 +26908,12 @@
       <c r="Y92" s="3"/>
     </row>
     <row r="93" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="19"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -26924,12 +26935,12 @@
       <c r="Y93" s="3"/>
     </row>
     <row r="94" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -26951,12 +26962,12 @@
       <c r="Y94" s="3"/>
     </row>
     <row r="95" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -26978,12 +26989,12 @@
       <c r="Y95" s="3"/>
     </row>
     <row r="96" spans="1:25" ht="149.25" customHeight="1">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -27005,12 +27016,12 @@
       <c r="Y96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="149.25" customHeight="1">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -27032,12 +27043,12 @@
       <c r="Y97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="149.25" customHeight="1">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="19"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -27899,6 +27910,82 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E82:F82"/>
     <mergeCell ref="B88:F88"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="E89:F89"/>
@@ -27907,82 +27994,6 @@
     <mergeCell ref="B85:F85"/>
     <mergeCell ref="B86:F86"/>
     <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
+++ b/요구사항정의서/20220226_수정/요구사항정의서_데일리룩 관리_곽다은_수정.xlsx
@@ -137,16 +137,6 @@
     <t>유저의 '데일리룩' 정보를 조회한다.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-○ '데일리룩' 삭제 -&gt; 기존에 등록해둔 '데일리룩'을 삭제
--기존에 작성해둔 '데일리룩'을 조회한다.
--기존에 작성해둔 '데일리룩' 중 삭제하고 싶은 글을 클릭하여 들어간다.
--들어간 '데일리룩'의 가장 오른쪽, 위에 삭제 버튼을 클릭한다.
--'이 데일리룩을 삭제하시겠습니까?' 팝업창이 나오고, '예, 삭제하겠습니다.' 선택 시, 해당 데일리룩이 삭제된다.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>○옷장 불러오기 데이터
 - 옷장의 상품명(Text)
 - 옷장 상품의 사진(Img(uploadAPI, formData, config))
@@ -187,6 +177,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">○ 데일리룩 조회 데이터
+- ID: 데일리룩의 고유한 일련번호(Text)
+- 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
+- 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
+- 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
+- 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
+- 생성자: 작성한 유저ID(Text)
+- 점수: 댓글에서 각각의 유저가 낸 점수의 평균(Text)
+- 용도: 유저의 데일리룩 정보 기록
+- URL: 데일리룩이 위치할 페이지(URL)
+- 생성일자(Text), 수정일자(Text)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>○'데일리룩' 수정 등록 데이터
 - ID: 데일리룩의 고유한 일련번호(Text)
 - 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
@@ -211,17 +216,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">○ 데일리룩 조회 데이터
+    <t xml:space="preserve">○등록된(삭제할) 데이터
 - ID: 데일리룩의 고유한 일련번호(Text)
 - 데일리룩 제목: 개별 데일리룩의 고유 명칭(Text)
 - 데일리룩 스타일: 데일리룩의 하위 카테고리(Text)
 - 데일리룩 사진: 데일리룩의 사진(Img(uploadAPI, formData, config))
 - 데일리룩 인체그리드: 데일리룩에 들어갈 옷 정보(Text, Img(uploadAPI, formData, config))
-- 생성자: 작성한 유저ID(Text)
-- 점수: 댓글에서 각각의 유저가 낸 점수의 평균(Text)
-- 용도: 유저의 데일리룩 정보 기록
+- 생성자: 로그인한 유저ID(Text)
+- 용도: 유저의 데일리룩 정보 수정
 - URL: 데일리룩이 위치할 페이지(URL)
-- 생성일자(Text), 수정일자(Text)
+- 수정일자(Text)
+○ '데일리룩' 삭제 -&gt; 기존에 등록해둔 '데일리룩'을 삭제
+-기존에 작성해둔 '데일리룩'을 조회한다.
+-기존에 작성해둔 '데일리룩' 중 삭제하고 싶은 글을 클릭하여 들어간다.
+-들어간 '데일리룩'의 가장 오른쪽, 위에 삭제 버튼을 클릭한다.
+-'이 데일리룩을 삭제하시겠습니까?' 팝업창이 나오고, '예, 삭제하겠습니다.' 선택 시, 해당 데일리룩이 삭제된다.
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -24143,8 +24152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:F87"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="14.4"/>
@@ -24464,7 +24473,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -25362,7 +25371,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -25811,7 +25820,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -26711,7 +26720,7 @@
         <v>16</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
